--- a/data/stat probs/jordan goodwin stat probs - condition.xlsx
+++ b/data/stat probs/jordan goodwin stat probs - condition.xlsx
@@ -19,20 +19,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
@@ -589,28 +589,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1391,28 +1391,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2193,22 +2193,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2483,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2677,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2871,28 +2871,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -3673,28 +3673,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -4407,1610 +4407,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>92</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>54</v>
-      </c>
-      <c r="J3" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>85</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>85</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E5" t="n">
-        <v>69</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31</v>
-      </c>
-      <c r="G5" t="n">
-        <v>62</v>
-      </c>
-      <c r="H5" t="n">
-        <v>38</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23</v>
-      </c>
-      <c r="E6" t="n">
-        <v>69</v>
-      </c>
-      <c r="F6" t="n">
-        <v>31</v>
-      </c>
-      <c r="G6" t="n">
-        <v>46</v>
-      </c>
-      <c r="H6" t="n">
-        <v>54</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>54</v>
-      </c>
-      <c r="F7" t="n">
-        <v>46</v>
-      </c>
-      <c r="G7" t="n">
-        <v>31</v>
-      </c>
-      <c r="H7" t="n">
-        <v>69</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>69</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31</v>
-      </c>
-      <c r="E8" t="n">
-        <v>46</v>
-      </c>
-      <c r="F8" t="n">
-        <v>54</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>92</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>62</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38</v>
-      </c>
-      <c r="E9" t="n">
-        <v>46</v>
-      </c>
-      <c r="F9" t="n">
-        <v>54</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>54</v>
-      </c>
-      <c r="D10" t="n">
-        <v>46</v>
-      </c>
-      <c r="E10" t="n">
-        <v>23</v>
-      </c>
-      <c r="F10" t="n">
-        <v>77</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>46</v>
-      </c>
-      <c r="D11" t="n">
-        <v>54</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>77</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15</v>
-      </c>
-      <c r="D13" t="n">
-        <v>85</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>92</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>92</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>92</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>92</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>92</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>92</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>92</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>92</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>92</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>92</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>92</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>92</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>54</v>
-      </c>
-      <c r="J3" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>85</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>85</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E5" t="n">
-        <v>69</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31</v>
-      </c>
-      <c r="G5" t="n">
-        <v>62</v>
-      </c>
-      <c r="H5" t="n">
-        <v>38</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>77</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23</v>
-      </c>
-      <c r="E6" t="n">
-        <v>69</v>
-      </c>
-      <c r="F6" t="n">
-        <v>31</v>
-      </c>
-      <c r="G6" t="n">
-        <v>46</v>
-      </c>
-      <c r="H6" t="n">
-        <v>54</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>54</v>
-      </c>
-      <c r="F7" t="n">
-        <v>46</v>
-      </c>
-      <c r="G7" t="n">
-        <v>31</v>
-      </c>
-      <c r="H7" t="n">
-        <v>69</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>69</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31</v>
-      </c>
-      <c r="E8" t="n">
-        <v>46</v>
-      </c>
-      <c r="F8" t="n">
-        <v>54</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>92</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>62</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38</v>
-      </c>
-      <c r="E9" t="n">
-        <v>46</v>
-      </c>
-      <c r="F9" t="n">
-        <v>54</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>54</v>
-      </c>
-      <c r="D10" t="n">
-        <v>46</v>
-      </c>
-      <c r="E10" t="n">
-        <v>23</v>
-      </c>
-      <c r="F10" t="n">
-        <v>77</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>46</v>
-      </c>
-      <c r="D11" t="n">
-        <v>54</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>77</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15</v>
-      </c>
-      <c r="D13" t="n">
-        <v>85</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>92</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>92</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>92</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>92</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>92</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>92</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>92</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>92</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>92</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>92</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>92</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6079,28 +4475,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -6396,7 +4792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6465,28 +4861,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -6782,7 +5178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6851,28 +5247,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -7424,7 +5820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7493,28 +5889,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -8066,7 +6462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8135,22 +6531,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8476,6 +6872,1066 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>67</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>67</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>56</v>
+      </c>
+      <c r="J2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>89</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>78</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" t="n">
+        <v>78</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>89</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>78</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>89</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>56</v>
+      </c>
+      <c r="H7" t="n">
+        <v>44</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>78</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" t="n">
+        <v>78</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33</v>
+      </c>
+      <c r="D13" t="n">
+        <v>67</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>67</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" t="n">
+        <v>78</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>78</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>78</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8553,28 +8009,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -9287,424 +8743,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>67</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>67</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>67</v>
-      </c>
-      <c r="H6" t="n">
-        <v>33</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>67</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>33</v>
-      </c>
-      <c r="H8" t="n">
-        <v>67</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>67</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9773,28 +8811,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -10346,649 +9384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44</v>
-      </c>
-      <c r="J3" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>89</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" t="n">
-        <v>78</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>78</v>
-      </c>
-      <c r="F5" t="n">
-        <v>22</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>89</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H6" t="n">
-        <v>22</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>89</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>56</v>
-      </c>
-      <c r="H7" t="n">
-        <v>44</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>89</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>33</v>
-      </c>
-      <c r="H8" t="n">
-        <v>67</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>89</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>78</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22</v>
-      </c>
-      <c r="E10" t="n">
-        <v>22</v>
-      </c>
-      <c r="F10" t="n">
-        <v>78</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>67</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>33</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22</v>
-      </c>
-      <c r="D15" t="n">
-        <v>78</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22</v>
-      </c>
-      <c r="D16" t="n">
-        <v>78</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>22</v>
-      </c>
-      <c r="D17" t="n">
-        <v>78</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>22</v>
-      </c>
-      <c r="D19" t="n">
-        <v>78</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11057,28 +9453,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -11534,7 +9930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11603,28 +9999,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -12080,7 +10476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12149,28 +10545,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -12786,7 +11182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12855,28 +11251,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -13484,6 +11880,1098 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>89</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>56</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>78</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>89</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>89</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>89</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>89</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>89</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>89</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>89</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>89</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>56</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>78</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>89</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>89</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>89</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>89</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>89</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>89</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>89</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13561,28 +13049,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14011,28 +13499,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14461,28 +13949,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -14783,28 +14271,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -15585,28 +15073,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -15907,28 +15395,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -16293,28 +15781,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -16679,22 +16167,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17065,22 +16553,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17451,28 +16939,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -18093,28 +17581,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -18735,28 +18223,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19121,28 +18609,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19507,28 +18995,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20149,28 +19637,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -20951,28 +20439,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21593,28 +21081,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -22075,28 +21563,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -22557,28 +22045,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22911,28 +22399,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23265,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -23395,10 +22883,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -23525,22 +23013,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23815,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24105,28 +23593,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24363,28 +23851,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -25069,28 +24557,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25327,22 +24815,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25553,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25779,28 +25267,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -26069,28 +25557,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +25853,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26591,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26811,28 +26299,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27517,28 +27005,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28229,10 +27717,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28353,28 +27841,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -29065,10 +28553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29189,28 +28677,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -29831,28 +29319,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -30473,22 +29961,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30923,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31373,22 +30861,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31727,22 +31215,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32081,28 +31569,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32339,28 +31827,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32597,28 +32085,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32855,28 +32343,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33657,28 +33145,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33915,22 +33403,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34109,22 +33597,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34303,22 +33791,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34497,22 +33985,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34691,28 +34179,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34917,28 +34405,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35143,28 +34631,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35529,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35915,16 +35403,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -36109,28 +35597,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36911,16 +36399,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -37111,10 +36599,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -37241,10 +36729,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -37365,28 +36853,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37815,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38265,28 +37753,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38715,28 +38203,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39165,28 +38653,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -39519,28 +39007,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -39873,28 +39361,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -40515,28 +40003,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41317,28 +40805,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -41959,22 +41447,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -42377,22 +41865,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -42795,28 +42283,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43213,28 +42701,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43631,22 +43119,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -43953,22 +43441,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -44275,22 +43763,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -44565,22 +44053,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -44855,22 +44343,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
